--- a/backends/excel/fixtures/products_update.xlsx
+++ b/backends/excel/fixtures/products_update.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>代码</t>
   </si>
@@ -207,15 +204,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
@@ -1320,7 +1314,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1332,61 +1326,51 @@
     <col min="4" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="B2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="C2" s="5">
         <v>111</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="C3" s="8">
         <v>222</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="C4" s="8">
         <v>333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
